--- a/src/main/resources/testdata.xlsx
+++ b/src/main/resources/testdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Class Selenium\CLASS 04\workspace\learnPOM\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{326C50E0-5397-4661-8F4E-A4198D3C9049}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA593636-A8FA-423C-AB3F-0437C5E34C36}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1500" windowWidth="17280" windowHeight="8724" xr2:uid="{AC677799-098A-4065-AC80-450F492020E2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AC677799-098A-4065-AC80-450F492020E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Auto" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
   <si>
     <t>Test Case name</t>
   </si>
@@ -113,7 +113,22 @@
     <t>user1@gmail.com</t>
   </si>
   <si>
+    <t>Login_05</t>
+  </si>
+  <si>
+    <t>autoweb2@gmail.com</t>
+  </si>
+  <si>
+    <t>Login_06</t>
+  </si>
+  <si>
+    <t>uset333</t>
+  </si>
+  <si>
     <t>Failed</t>
+  </si>
+  <si>
+    <t>Passed</t>
   </si>
 </sst>
 </file>
@@ -476,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B659CED9-D00D-4833-B084-123B997EF8CF}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="182" zoomScaleNormal="182" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -508,27 +523,29 @@
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
         <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D3"/>
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -540,16 +557,50 @@
       <c r="C4" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>24</v>
+      <c r="B5" t="s">
+        <v>29</v>
       </c>
       <c r="C5" s="1">
         <v>123456</v>
+      </c>
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="1">
+        <v>123456</v>
+      </c>
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1111111</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
